--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E4145-B892-4162-A470-449B0020EFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D2E24-A8FC-4E6A-A618-9490053425D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1695,10 +1695,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1b0103h08,S2i1024h14,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13</t>
-  </si>
-  <si>
-    <t>S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06</t>
+    <t>S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1b0103h08,S2i1024h14,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18</t>
+  </si>
+  <si>
+    <t>S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06</v>
+        <v>S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1b0103h08,S2i1024h14,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13</v>
+        <v>S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1b0103h08,S2i1024h14,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2915,7 +2915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420AF5CE-25DA-4E26-8BDF-8DEC7FF5B55C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CD3F08-6748-42D2-BF2E-A8D470AE1A99}">
   <dimension ref="B2:F227"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4808,7 +4808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EA8C83-CA41-4507-B6D6-4A7A2D638261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDE5DEF-32C2-4B5F-A9D2-57996747ECA7}">
   <dimension ref="B2:O235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4887,10 +4887,10 @@
         <v>547</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.3448750578435909</v>
+        <v>0.85512494215640888</v>
       </c>
       <c r="O4" t="s">
         <v>558</v>
@@ -4922,10 +4922,10 @@
         <v>547</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.855124942156409</v>
+        <v>0.34487505784359085</v>
       </c>
       <c r="O5" t="s">
         <v>558</v>
@@ -10917,7 +10917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6428B7D8-D534-46AD-B105-67D7B6AC7F4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B99F64B-6C99-42C2-B5A9-B5BA4D9BD8BE}">
   <dimension ref="B2:O467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D2E24-A8FC-4E6A-A618-9490053425D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CA881A-912C-4A49-9397-AB9292AE9FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1695,10 +1695,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1b0103h08,S2i1024h14,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18</t>
-  </si>
-  <si>
-    <t>S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22</t>
+    <t>S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1b0103h08,S2i1024h14,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18</t>
+  </si>
+  <si>
+    <t>S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22</v>
+        <v>S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1b0103h08,S2i1024h14,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18</v>
+        <v>S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1b0103h08,S2i1024h14,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2915,7 +2915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CD3F08-6748-42D2-BF2E-A8D470AE1A99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76849B00-F27A-4F36-86D8-7A9F33B1A2CF}">
   <dimension ref="B2:F227"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4808,7 +4808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDE5DEF-32C2-4B5F-A9D2-57996747ECA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B1108B-4DAC-47C5-B5B5-6087030CBCEE}">
   <dimension ref="B2:O235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4890,7 +4890,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>0.85512494215640888</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O4" t="s">
         <v>558</v>
@@ -4925,7 +4925,7 @@
         <v>79</v>
       </c>
       <c r="N5">
-        <v>0.34487505784359085</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O5" t="s">
         <v>558</v>
@@ -10917,7 +10917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B99F64B-6C99-42C2-B5A9-B5BA4D9BD8BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4054C7-FA68-4122-BEC0-AD13DA30F48B}">
   <dimension ref="B2:O467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CA881A-912C-4A49-9397-AB9292AE9FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE826D7-9961-4CA7-8D87-0B26C4B24FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1695,10 +1695,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1b0103h08,S2i1024h14,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18</t>
-  </si>
-  <si>
-    <t>S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22</t>
+    <t>S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1b0103h08,S2i1024h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14</t>
+  </si>
+  <si>
+    <t>S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22</v>
+        <v>S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1b0103h08,S2i1024h14,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18</v>
+        <v>S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1b0103h08,S2i1024h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2915,7 +2915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76849B00-F27A-4F36-86D8-7A9F33B1A2CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F98C49-32CE-4F9B-BC7B-BB2350348BC4}">
   <dimension ref="B2:F227"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4808,7 +4808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B1108B-4DAC-47C5-B5B5-6087030CBCEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702CFD87-1218-4453-B781-235F29D2670F}">
   <dimension ref="B2:O235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10917,7 +10917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4054C7-FA68-4122-BEC0-AD13DA30F48B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2432508-5316-490A-887D-5999A614003B}">
   <dimension ref="B2:O467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE826D7-9961-4CA7-8D87-0B26C4B24FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2A42A1-08DC-4B0D-8CE1-14CF4B5B49B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1695,10 +1695,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1b0103h08,S2i1024h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14</t>
-  </si>
-  <si>
-    <t>S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20</t>
+    <t>S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1b0103h08,S2i1024h14,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09</t>
+  </si>
+  <si>
+    <t>S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20</v>
+        <v>S1b0103h03,S1b0103h05,S1b0103h19,S1f0321h02,S1f0321h23,S1g0417h20,S1g0417h21,S2h1007h04,S2h1007h22,S2h1007h23,S2i1024h05,S2j1230h05,S2j1230h06,S1c0202h21,S1f0321h21,S1g0417h22,S2aH6,S2h1007h02,S2h1007h06,S2j1230h23,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S1f0321h06,S2h1007h03,S1aH1,S1b0103h23,S1d0226h23,S1e0315h21,S2aH7,S2h1007h19,S1b0103h06,S1d0226h06,S1g0417h03,S2h1007h01,S2h1007h24,S1c0202h03,S1d0226h03,S1d0226h20,S1f0321h03,S1g0417h01,S1g0417h06,S1aH8,S1b0103h21,S1e0315h01,S1e0315h06,S1f0321h04,S1f0321h05,S2i1024h03,S1c0202h22,S1c0202h24,S1g0417h19,S2aH1,S1d0226h24,S1f0321h19,S1f0321h20,S1g0417h04,S2i1024h01,S2i1024h21,S2i1024h24,S2j1230h19,S2j1230h22,S1aH7,S1c0202h06,S1e0315h02,S2j1230h24,S1d0226h04,S1e0315h05,S1e0315h20,S1e0315h23,S1g0417h23,S1g0417h24,S2i1024h04,S2i1024h06,S2i1024h22,S2i1024h23,S1b0103h22,S1b0103h24,S1c0202h01,S1e0315h22,S2h1007h05,S2h1007h21,S2i1024h19,S2j1230h04,S1b0103h01,S1b0103h02,S1e0315h03,S1f0321h01,S1f0321h24,S2aH8,S2h1007h20,S2j1230h01,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S1e0315h19,S1e0315h24,S1g0417h02,S1g0417h05,S2i1024h20,S2j1230h03,S2j1230h20,S1d0226h21,S1e0315h04,S1f0321h22,S2i1024h02,S2j1230h02,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2j1230h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09,S1b0103h08,S2i1024h14,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14</v>
+        <v>S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S1e0315h14,S1f0321h08,S1g0417h14,S2aH2,S2j1230h11,S2j1230h13,S1b0103h07,S1b0103h12,S1d0226h09,S1f0321h16,S1f0321h17,S1g0417h13,S2i1024h12,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S1f0321h07,S2aH3,S2j1230h08,S1e0315h07,S1e0315h16,S1f0321h09,S1f0321h14,S1f0321h18,S1g0417h12,S2i1024h15,S2j1230h15,S2j1230h16,S1b0103h09,S1b0103h14,S1e0315h15,S1f0321h12,S1g0417h07,S2h1007h08,S2h1007h10,S2i1024h10,S2j1230h10,S1b0103h13,S1c0202h09,S1e0315h08,S2h1007h13,S2j1230h12,S1c0202h07,S1c0202h08,S1d0226h15,S2h1007h09,S2i1024h17,S1c0202h13,S1e0315h17,S2h1007h12,S2i1024h08,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S1e0315h11,S1g0417h09,S2h1007h15,S2h1007h17,S2i1024h18,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S1e0315h12,S1f0321h10,S1f0321h11,S2i1024h16,S1d0226h13,S1g0417h08,S1g0417h16,S2h1007h07,S2h1007h11,S1e0315h10,S1e0315h18,S1g0417h10,S1g0417h11,S1g0417h15,S2j1230h07,S2j1230h17,S1b0103h08,S2i1024h14,S1aH5,S1c0202h14,S1d0226h11,S1f0321h13,S1g0417h18,S2aH4,S2aH5,S2j1230h14,S1b0103h11,S1e0315h13,S2h1007h14,S2i1024h11,S2j1230h18,S1c0202h15,S1d0226h07,S1e0315h09,S1f0321h15,S1g0417h17,S2h1007h16,S2h1007h18,S2i1024h07,S2i1024h09,S2i1024h13,S2j1230h09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2915,7 +2915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F98C49-32CE-4F9B-BC7B-BB2350348BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8842C213-20AC-40A9-A55F-2C80F1367EA9}">
   <dimension ref="B2:F227"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4808,7 +4808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702CFD87-1218-4453-B781-235F29D2670F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD7EC83-BB73-4A47-9E27-E4C330620B8D}">
   <dimension ref="B2:O235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10917,7 +10917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2432508-5316-490A-887D-5999A614003B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DD9DB1-769D-4B3B-9F26-7E1FE2F0E7AD}">
   <dimension ref="B2:O467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6F34017-329C-4505-805A-603C03C33467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33A98E9-7E50-4A00-ABF9-9C735F94E83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1701,10 +1701,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S2i1209h08,S2j1223h10,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09</t>
-  </si>
-  <si>
-    <t>S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1f0726h20,S2h1129h06,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24</t>
+    <t>S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S2i1209h08,S2j1223h10,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13</t>
+  </si>
+  <si>
+    <t>S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1f0726h20,S2h1129h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2021,7 +2021,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0D2933-26F0-1E03-032A-AAE724DE36C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D294EE33-91D8-8879-0AE6-86330211574A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C97CAD4A-1A71-977E-A054-A65CBCE3DC6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29A1DFC-8FDF-CDF2-BB06-132AE66FECA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +2131,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCB63A7-FB35-D09E-9501-B5F26CB56BA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1A96F1-6324-3EB3-B718-74B8E974F1CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1f0726h20,S2h1129h06,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24</v>
+        <v>S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1f0726h20,S2h1129h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S2i1209h08,S2j1223h10,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09</v>
+        <v>S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S2i1209h08,S2j1223h10,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3184,7 +3184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81298FE0-50F5-4714-AAF3-7F29EF9B5408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A30B945-A8D8-4332-93F1-7F313CCFA0F0}">
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5748,7 +5748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0FC11D-842E-42FC-8982-A50F421327E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854CF70E-8CC4-4EE4-86E8-B9FAE29DD973}">
   <dimension ref="A1:S242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14683,7 +14683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073FAE16-FB2D-4B37-B34F-2808F232756F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59BF7EA-2B0C-4AF2-8902-3B26CB5ACE0F}">
   <dimension ref="A1:M474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC7B3AF-3C36-48D5-A8AF-E083A2535868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC09284-C27F-4302-9862-8F31A69C7683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1698,10 +1698,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S2i1209h08,S2j1223h10,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09</t>
-  </si>
-  <si>
-    <t>S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1f0726h20,S2h1129h06,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06</t>
+    <t>S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S2i1209h08,S2j1223h10,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18</t>
+  </si>
+  <si>
+    <t>S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1f0726h20,S2h1129h06,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1f0726h20,S2h1129h06,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06</v>
+        <v>S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1f0726h20,S2h1129h06,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S2i1209h08,S2j1223h10,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09</v>
+        <v>S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S2i1209h08,S2j1223h10,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2918,7 +2918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F889C7D-8BC2-4CBA-AB4A-F2CC6954275F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CBEFF3-DDBB-4C69-9478-E74C18B07488}">
   <dimension ref="B9:F234"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4811,7 +4811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC3C8DA-B704-477A-9D64-AA829F1D753E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3546A4-5D87-4D91-95FC-44E8E1465BF3}">
   <dimension ref="B9:S242"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4917,10 +4917,10 @@
         <v>315</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R11">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="S11" t="s">
         <v>560</v>
@@ -4964,10 +4964,10 @@
         <v>315</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R12">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="S12" t="s">
         <v>560</v>
@@ -13719,7 +13719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550FA8-8509-48DA-B922-346757FBE8D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF0C968-332D-4A95-AD7C-FC160A408FB8}">
   <dimension ref="B9:M474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E9D15A-39C7-4BCB-8348-3D50CE0C4ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FF1ACC-5C18-4A01-90BC-964E1C08543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1554,13 +1554,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S2i1209h08,S2j1223h10,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09</t>
+    <t>S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S2i1209h08,S2j1223h10</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1f0726h20,S2h1129h06,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06</t>
+    <t>S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1f0726h20,S2h1129h06,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1f0726h20,S2h1129h06,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06</v>
+        <v>S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1f0726h20,S2h1129h06,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S2i1209h08,S2j1223h10,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09</v>
+        <v>S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S2i1209h08,S2j1223h10</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -2211,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3BAEBC-FB6C-4961-88B0-BD452DBCF5AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629C803C-7081-4B07-9635-E171A55C80C4}">
   <dimension ref="A9:AM474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2434,10 +2434,10 @@
         <v>0.38243438250847017</v>
       </c>
       <c r="AK11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL11">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="AM11" t="s">
         <v>512</v>
@@ -2526,10 +2526,10 @@
         <v>0.17900123533950985</v>
       </c>
       <c r="AK12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL12">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="AM12" t="s">
         <v>512</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D50F395F-A385-4D6A-ACC2-5639B2775848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE25463-C3CD-43F0-8ACE-F1EC12096287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1554,13 +1554,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S2i1209h08,S2j1223h10,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18</t>
+    <t>S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S2i1209h08,S2j1223h10,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1f0726h20,S2h1129h06,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24</t>
+    <t>S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1f0726h20,S2h1129h06,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1f0726h20,S2h1129h06,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24</v>
+        <v>S1d0331h24,S1e0418h05,S1g0807h01,S2h1129h20,S2j1223h21,S1b0202h01,S1d0331h03,S1f0726h01,S1f0726h02,S1f0726h24,S1f0726h20,S2h1129h06,S1c0315h23,S1d0331h05,S1d0331h23,S1f0726h22,S1g0807h19,S1b0202h02,S1b0202h21,S1c0315h21,S1d0331h20,S1f0726h23,S1g0807h02,S2aH8,S2j1223h03,S1b0202h05,S1b0202h06,S1c0315h06,S1d0331h02,S2h1129h04,S2i1209h02,S2j1223h24,S1aH8,S1c0315h04,S1c0315h05,S1d0331h22,S1f0726h03,S1g0807h20,S1g0807h22,S2h1129h22,S2i1209h24,S2j1223h04,S1b0202h24,S1e0418h23,S1f0726h06,S2h1129h01,S1b0202h03,S1b0202h22,S1c0315h19,S1e0418h03,S1f0726h05,S1g0807h21,S2aH1,S2j1223h23,S1aH1,S1b0202h20,S1b0202h23,S2h1129h02,S2h1129h19,S2i1209h03,S2i1209h05,S2j1223h05,S2j1223h19,S2j1223h22,S1c0315h02,S1c0315h22,S1d0331h19,S1d0331h21,S1f0726h04,S1g0807h24,S2h1129h24,S2i1209h22,S2j1223h20,S1c0315h20,S1d0331h01,S1e0418h02,S1e0418h04,S1e0418h19,S1e0418h20,S1e0418h22,S1g0807h03,S2h1129h03,S2h1129h23,S2j1223h02,S1b0202h19,S1c0315h01,S1c0315h24,S1e0418h21,S1e0418h24,S1f0726h19,S2h1129h21,S2j1223h01,S2j1223h06,S1d0331h04,S1e0418h01,S1f0726h21,S1g0807h06,S2i1209h06,S2i1209h19,S1g0807h04,S1g0807h05,S1g0807h23,S2h1129h05,S2i1209h01,S2i1209h20,S2i1209h21,S1b0202h04,S1c0315h03,S1d0331h06,S1e0418h06,S2i1209h04,S2i1209h23</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S2i1209h08,S2j1223h10,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18</v>
+        <v>S1aH6,S1c0315h14,S1e0418h18,S1g0807h07,S2h1129h13,S2i1209h16,S2j1223h11,S2j1223h17,S1b0202h15,S1c0315h13,S1c0315h18,S1d0331h10,S1d0331h13,S1d0331h16,S1e0418h10,S1e0418h13,S1g0807h11,S1g0807h14,S2h1129h09,S2h1129h11,S2h1129h18,S2j1223h07,S2j1223h12,S2j1223h14,S2j1223h18,S1b0202h10,S1b0202h18,S1c0315h08,S1f0726h10,S1f0726h17,S2aH7,S2j1223h13,S1aH4,S1b0202h12,S1d0331h07,S1d0331h15,S1e0418h12,S1g0807h09,S2aH2,S1c0315h07,S1c0315h17,S1d0331h14,S1e0418h16,S1f0726h16,S2h1129h16,S1aH5,S1b0202h07,S1c0315h12,S1c0315h16,S2aH4,S2aH5,S2h1129h07,S2h1129h12,S2j1223h09,S1b0202h14,S1g0807h15,S1g0807h16,S2aH6,S2i1209h15,S1b0202h08,S1b0202h11,S1c0315h09,S1c0315h11,S1e0418h09,S1e0418h14,S1e0418h15,S1f0726h13,S1g0807h08,S1g0807h12,S2i1209h10,S1d0331h17,S1e0418h07,S1f0726h18,S1g0807h17,S2h1129h08,S2i1209h18,S1d0331h09,S1d0331h12,S1d0331h18,S2h1129h14,S2h1129h15,S2h1129h17,S2i1209h12,S2i1209h17,S1aH2,S1aH7,S1b0202h17,S1c0315h10,S1c0315h15,S1f0726h07,S1g0807h10,S2aH3,S2i1209h11,S2i1209h13,S2i1209h14,S2j1223h15,S2i1209h08,S2j1223h10,S1d0331h08,S1f0726h11,S1f0726h12,S1g0807h18,S2i1209h09,S1aH3,S1d0331h11,S1f0726h08,S1g0807h13,S2h1129h10,S2i1209h07,S1b0202h13,S1b0202h16,S1e0418h08,S1e0418h11,S1f0726h14,S1f0726h15,S2j1223h08,S1b0202h09,S1e0418h17,S1f0726h09,S2j1223h16</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -2211,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211DE7BF-9768-457A-837F-8CF42E60BF4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFABE66-F119-4CB9-ADFD-E5C988080D7B}">
   <dimension ref="A9:AM474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
